--- a/3DLv2_2023_vs2019_Game/Plan/仕様書.xlsx
+++ b/3DLv2_2023_vs2019_Game/Plan/仕様書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hiror\OneDrive\デスクトップ\game programming\授業\12Saitoh\3DLv2_2023_vs2019_Game\Plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F081F722-9DA1-4C09-AAB8-EDDED5D8DDAB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E94F686-B967-412D-A17F-44D7A19A9713}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5460" xr2:uid="{43031F2A-CB87-48B4-88C3-2F16FE7E15E3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5460" activeTab="1" xr2:uid="{43031F2A-CB87-48B4-88C3-2F16FE7E15E3}"/>
   </bookViews>
   <sheets>
     <sheet name="企画書" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="53">
   <si>
     <t>仕様書</t>
     <rPh sb="0" eb="3">
@@ -267,10 +267,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ジャンプ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>攻撃</t>
     <rPh sb="0" eb="2">
       <t>コウゲキ</t>
@@ -278,16 +274,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>死亡(被弾)</t>
-    <rPh sb="0" eb="2">
-      <t>シボウ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ヒダン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>■敵ベース</t>
     <rPh sb="1" eb="2">
       <t>テキ</t>
@@ -305,6 +291,13 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>■味方ベース</t>
+    <rPh sb="1" eb="3">
+      <t>ミカタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>攻撃処理</t>
     <rPh sb="0" eb="2">
       <t>コウゲキ</t>
@@ -315,13 +308,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>■敵AI</t>
-    <rPh sb="1" eb="2">
-      <t>テキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>経路探索</t>
     <rPh sb="0" eb="2">
       <t>ケイロ</t>
@@ -332,9 +318,242 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>■味方ベース</t>
+    <t>攻撃処理</t>
+    <rPh sb="0" eb="4">
+      <t>コウゲキショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>死亡処理</t>
+    <rPh sb="0" eb="2">
+      <t>シボウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>死亡処理</t>
+    <rPh sb="0" eb="2">
+      <t>シボウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>■AI</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ジャンプ(優先度:低)</t>
+    <rPh sb="5" eb="8">
+      <t>ユウセンド</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ヒク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>②相手が2人以下の場合は先頭の敵は少し前進</t>
     <rPh sb="1" eb="3">
+      <t>アイテ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ニン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>セントウ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>スコ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ゼンシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤーのスタート位置</t>
+    <rPh sb="10" eb="12">
+      <t>イチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>③相手が1人以下の場合は後衛の2人も前進する</t>
+    <rPh sb="1" eb="3">
+      <t>アイテ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ニン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>コウエイ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ニン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ゼンシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AI</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>■敵AIについて</t>
+    <rPh sb="1" eb="2">
+      <t>テキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●ゲームステージイメージ図</t>
+    <rPh sb="12" eb="13">
+      <t>ズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●図の説明</t>
+    <rPh sb="1" eb="2">
+      <t>ズ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>壁</t>
+    <rPh sb="0" eb="1">
+      <t>カベ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フラッグ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>味方NPC</t>
+    <rPh sb="0" eb="2">
       <t>ミカタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵NPC</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※下図のプレイヤーとNPCの配置されている場所がスタート位置</t>
+    <rPh sb="1" eb="3">
+      <t>シタズ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ハイチ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>バショ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>イチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・３か所にランダム配置</t>
+    <rPh sb="3" eb="4">
+      <t>ショ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ハイチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イラスト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>説明</t>
+    <rPh sb="0" eb="2">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①相手が3人以上の場合はセンターラインの壁以上は移動しない</t>
+    <rPh sb="20" eb="21">
+      <t>カベ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>④NPCは一つの壁に2人以上隠れないようにする</t>
+    <rPh sb="5" eb="6">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>カベ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ニン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>カク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>⑤敵のいる壁には隠れないようにする</t>
+    <rPh sb="1" eb="2">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>カベ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>カク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -343,7 +562,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -386,6 +605,31 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -395,12 +639,225 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="20">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -409,7 +866,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -423,6 +880,75 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -917,6 +1443,1125 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>541020</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>160020</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="正方形/長方形 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3EE679A6-F500-4AC0-93FD-308452F6C28A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7993380" y="5524500"/>
+          <a:ext cx="289560" cy="922020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>541020</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>160020</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="正方形/長方形 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB3DCF70-BAA0-4139-9A21-B4C0712D9589}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4640580" y="5524500"/>
+          <a:ext cx="289560" cy="922020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>563880</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>182880</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="正方形/長方形 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DAEB1B7F-7365-4EB0-8A7C-4F07EBEA2DD3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1310640" y="5524500"/>
+          <a:ext cx="289560" cy="922020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>556260</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>220980</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>175260</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>220980</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="正方形/長方形 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E7F3388-9A89-4743-A5FB-5FD9149719CF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2644140" y="6659880"/>
+          <a:ext cx="289560" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>518160</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>137160</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>213360</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="正方形/長方形 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FB73999-72E7-4417-BCBC-EBF1F823B9DD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6629400" y="4610100"/>
+          <a:ext cx="289560" cy="670560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>480060</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="正方形/長方形 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C88B8F4-FED8-4F34-858F-FE079B81DD59}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3619500" y="4617720"/>
+          <a:ext cx="289560" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>198120</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>213360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>487680</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>213360</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="正方形/長方形 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8825BC05-6B7F-45A8-B565-772A5CE7E4C1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5638800" y="6652260"/>
+          <a:ext cx="289560" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>289560</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>302880</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>123214</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="図 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DB4B756-3603-45AF-8ACF-3A70B31C99DB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6400800" y="5631180"/>
+          <a:ext cx="683880" cy="694714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>365761</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>96628</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>411481</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>138454</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="図 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA5E755F-A099-4278-934E-4A37E05AFDCE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2453641" y="5613508"/>
+          <a:ext cx="716280" cy="727626"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>449580</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="正方形/長方形 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84D654BD-3E95-4672-A60B-6324E4A26BDA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9654540" y="4876800"/>
+          <a:ext cx="259080" cy="579120"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>320040</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>10810</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>199414</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="29" name="図 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{230D52D1-EE69-451B-87C5-5683C67C5D20}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9784080" y="5577840"/>
+          <a:ext cx="361330" cy="367054"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>22861</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>414196</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>199414</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="31" name="図 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51AFEBF4-7418-487D-8836-044EBE270B39}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9486901" y="5547360"/>
+          <a:ext cx="391335" cy="397534"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>137160</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>578367</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>144027</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="33" name="図 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9203241-8BA2-4E7B-8B5A-5D327A2D8CFF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6918960" y="4770120"/>
+          <a:ext cx="441207" cy="441207"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>487680</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>128788</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>121168</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="35" name="図 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7F888E2-58E1-44FE-B9B7-2E3F597DC5E3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5928360" y="6803908"/>
+          <a:ext cx="449580" cy="449580"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>167640</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>14488</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>617220</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>6868</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="36" name="図 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8831C8BE-B2FA-4F81-8064-3754185DB3DC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8290560" y="5767588"/>
+          <a:ext cx="449580" cy="449580"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>121921</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>144027</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>98306</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="38" name="図 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0715F209-35A5-41A5-B47E-C30FABE4449D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2209801" y="6819147"/>
+          <a:ext cx="411479" cy="411479"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>144781</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>44967</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>556260</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>227846</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="39" name="図 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB06EC0F-EED3-49C5-812C-E3AD619625C2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="891541" y="5798067"/>
+          <a:ext cx="411479" cy="411479"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>449581</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>159267</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>105926</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="40" name="図 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C9D3549-3D22-45FA-BD96-CD354BDDD8CE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3208021" y="4761747"/>
+          <a:ext cx="411479" cy="411479"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>532647</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>227847</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="41" name="図 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9BCC4BB-FEF7-4028-B2D6-26C719CD3A80}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9555480" y="6004560"/>
+          <a:ext cx="441207" cy="441207"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>129541</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>22107</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>541020</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>204986</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="42" name="図 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1323D520-E27C-449E-BA9C-950756007F07}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9593581" y="6925827"/>
+          <a:ext cx="411479" cy="411479"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>14488</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>556260</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>6868</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="44" name="図 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8740340-8FC5-47EC-901A-7BE0D8ADB4E9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9570720" y="6461008"/>
+          <a:ext cx="449580" cy="449580"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1221,7 +2866,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD661192-7374-489F-99B2-1EFC8329D065}">
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
@@ -1322,88 +2967,357 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2A9522C-43BD-419B-8E15-5E7E664DE1A6}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:Q37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="9.796875" customWidth="1"/>
+    <col min="1" max="1" width="9.796875" style="5" customWidth="1"/>
+    <col min="2" max="16384" width="8.796875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="19.8" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:10" ht="19.8" x14ac:dyDescent="0.45">
       <c r="A2" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A3" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A4" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E4" t="s">
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A5" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A6" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A7" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A8" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="C9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="C10" t="s">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A10" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A11" s="5" t="s">
         <v>28</v>
       </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A12" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="J13" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A14" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A15" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A16" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A17" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A18" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A19" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B25" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="O25" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B26" s="6"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="15"/>
+      <c r="M26" s="8"/>
+      <c r="O26" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="P26" s="27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="B27" s="9"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="16"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="10"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="16"/>
+      <c r="M27" s="11"/>
+      <c r="O27" s="9"/>
+      <c r="P27" s="19"/>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="B28" s="9"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="16"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="10"/>
+      <c r="K28" s="10"/>
+      <c r="L28" s="16"/>
+      <c r="M28" s="11"/>
+      <c r="O28" s="9"/>
+      <c r="P28" s="22" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="B29" s="9"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="10"/>
+      <c r="K29" s="10"/>
+      <c r="L29" s="16"/>
+      <c r="M29" s="11"/>
+      <c r="O29" s="9"/>
+      <c r="P29" s="19"/>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="B30" s="9"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="16"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="10"/>
+      <c r="K30" s="10"/>
+      <c r="L30" s="16"/>
+      <c r="M30" s="11"/>
+      <c r="O30" s="23"/>
+      <c r="P30" s="24" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="B31" s="9"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="16"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="10"/>
+      <c r="K31" s="10"/>
+      <c r="L31" s="16"/>
+      <c r="M31" s="11"/>
+      <c r="O31" s="18"/>
+      <c r="P31" s="20"/>
+      <c r="Q31" s="10"/>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="B32" s="9"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="16"/>
+      <c r="I32" s="10"/>
+      <c r="J32" s="10"/>
+      <c r="K32" s="10"/>
+      <c r="L32" s="16"/>
+      <c r="M32" s="11"/>
+      <c r="O32" s="23"/>
+      <c r="P32" s="25" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="B33" s="9"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="16"/>
+      <c r="I33" s="10"/>
+      <c r="J33" s="10"/>
+      <c r="K33" s="10"/>
+      <c r="L33" s="16"/>
+      <c r="M33" s="11"/>
+      <c r="O33" s="18"/>
+      <c r="P33" s="20"/>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="B34" s="9"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="16"/>
+      <c r="I34" s="10"/>
+      <c r="J34" s="10"/>
+      <c r="K34" s="10"/>
+      <c r="L34" s="16"/>
+      <c r="M34" s="11"/>
+      <c r="O34" s="23"/>
+      <c r="P34" s="25" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="B35" s="9"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="16"/>
+      <c r="I35" s="10"/>
+      <c r="J35" s="10"/>
+      <c r="K35" s="10"/>
+      <c r="L35" s="16"/>
+      <c r="M35" s="11"/>
+      <c r="O35" s="18"/>
+      <c r="P35" s="20"/>
+    </row>
+    <row r="36" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="B36" s="9"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="16"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="16"/>
+      <c r="I36" s="10"/>
+      <c r="J36" s="10"/>
+      <c r="K36" s="10"/>
+      <c r="L36" s="16"/>
+      <c r="M36" s="11"/>
+      <c r="O36" s="23"/>
+      <c r="P36" s="25" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B37" s="12"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="13"/>
+      <c r="H37" s="17"/>
+      <c r="I37" s="13"/>
+      <c r="J37" s="13"/>
+      <c r="K37" s="13"/>
+      <c r="L37" s="17"/>
+      <c r="M37" s="14"/>
+      <c r="O37" s="12"/>
+      <c r="P37" s="21"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/3DLv2_2023_vs2019_Game/Plan/仕様書.xlsx
+++ b/3DLv2_2023_vs2019_Game/Plan/仕様書.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20396"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20397"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hiror\OneDrive\デスクトップ\game programming\授業\12Saitoh\3DLv2_2023_vs2019_Game\Plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E94F686-B967-412D-A17F-44D7A19A9713}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2507A029-220B-4CB1-93AA-406F7B221B67}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5460" activeTab="1" xr2:uid="{43031F2A-CB87-48B4-88C3-2F16FE7E15E3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5460" activeTab="2" xr2:uid="{43031F2A-CB87-48B4-88C3-2F16FE7E15E3}"/>
   </bookViews>
   <sheets>
     <sheet name="企画書" sheetId="2" r:id="rId1"/>
     <sheet name="仕様書" sheetId="1" r:id="rId2"/>
+    <sheet name="仕様書2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="83">
   <si>
     <t>仕様書</t>
     <rPh sb="0" eb="3">
@@ -274,13 +275,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>■敵ベース</t>
-    <rPh sb="1" eb="2">
-      <t>テキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>移動処理</t>
     <rPh sb="0" eb="2">
       <t>イドウ</t>
@@ -291,13 +285,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>■味方ベース</t>
-    <rPh sb="1" eb="3">
-      <t>ミカタ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>攻撃処理</t>
     <rPh sb="0" eb="2">
       <t>コウゲキ</t>
@@ -387,6 +374,435 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>③相手が1人以下の場合は後衛の2人も前進する</t>
+    <rPh sb="1" eb="3">
+      <t>アイテ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ニン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>コウエイ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ニン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ゼンシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AI</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>■敵AIについて</t>
+    <rPh sb="1" eb="2">
+      <t>テキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●ゲームステージイメージ図</t>
+    <rPh sb="12" eb="13">
+      <t>ズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●図の説明</t>
+    <rPh sb="1" eb="2">
+      <t>ズ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>壁</t>
+    <rPh sb="0" eb="1">
+      <t>カベ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フラッグ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>味方NPC</t>
+    <rPh sb="0" eb="2">
+      <t>ミカタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵NPC</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※下図のプレイヤーとNPCの配置されている場所がスタート位置</t>
+    <rPh sb="1" eb="3">
+      <t>シタズ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ハイチ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>バショ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>イチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・３か所にランダム配置</t>
+    <rPh sb="3" eb="4">
+      <t>ショ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ハイチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イラスト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>説明</t>
+    <rPh sb="0" eb="2">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①相手が3人以上の場合はセンターラインの壁以上は移動しない</t>
+    <rPh sb="20" eb="21">
+      <t>カベ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>④NPCは一つの壁に2人以上隠れないようにする</t>
+    <rPh sb="5" eb="6">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>カベ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ニン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>カク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>⑤敵のいる壁には隠れないようにする</t>
+    <rPh sb="1" eb="2">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>カベ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>カク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>■経路探索について</t>
+    <rPh sb="1" eb="3">
+      <t>ケイロ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>タンサク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>目的地は自分から一番近い壁もしくは敵陣のフラッグ</t>
+    <rPh sb="0" eb="3">
+      <t>モクテキチ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>イチバンチカ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>カベ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>テキジン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>■UI</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>残りの雪玉数</t>
+    <rPh sb="0" eb="1">
+      <t>ノコ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ユキダマ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>残りの敵の数</t>
+    <rPh sb="0" eb="1">
+      <t>ノコ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>カズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>■味方</t>
+    <rPh sb="1" eb="3">
+      <t>ミカタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>■味方AIについて</t>
+    <rPh sb="1" eb="3">
+      <t>ミカタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵AIと同じ</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>オナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>⑥プレイヤーの視界外で一定の距離以内にいるとフラッグを取りに行く</t>
+    <rPh sb="7" eb="9">
+      <t>シカイ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ソト</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>イッテイ</t>
+    </rPh>
+    <rPh sb="14" eb="18">
+      <t>キョリイナイ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フラッグは取りに行くようにするが確率を下げて視界の判定をなくす</t>
+    <rPh sb="5" eb="6">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>カクリツ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>サ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>シカイ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ハンテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>残り時間の表示</t>
+    <rPh sb="0" eb="1">
+      <t>ノコ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイトル画面</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲームクリア画面</t>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲームオーバー画面</t>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ヒット時のエフェクト</t>
+    <rPh sb="3" eb="4">
+      <t>ジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>雪が降っているエフェクト(可能なら)</t>
+    <rPh sb="0" eb="1">
+      <t>ユキ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>■レベルデザイン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>壁の設置</t>
+    <rPh sb="0" eb="1">
+      <t>カベ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>セッチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フラッグの設置</t>
+    <rPh sb="5" eb="7">
+      <t>セッチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コートの作成</t>
+    <rPh sb="4" eb="6">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コート以外の作成(できたら)</t>
+    <rPh sb="3" eb="5">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※コート以外の作成について</t>
+    <rPh sb="4" eb="6">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>設定では村ということになっているので</t>
+    <rPh sb="0" eb="2">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ムラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>■ランダム要素</t>
+    <rPh sb="5" eb="7">
+      <t>ヨウソ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>雪の家や街頭のような物を追加する</t>
+    <rPh sb="0" eb="1">
+      <t>ユキ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>イエ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガイトウ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>モノ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>プレイヤーのスタート位置</t>
     <rPh sb="10" eb="12">
       <t>イチ</t>
@@ -394,166 +810,48 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>③相手が1人以下の場合は後衛の2人も前進する</t>
-    <rPh sb="1" eb="3">
-      <t>アイテ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ニン</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>イカ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>コウエイ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>ニン</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ゼンシン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>AI</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>■敵AIについて</t>
+    <t>※ランダム値を設定して一定の確率で⑥の行動をするように設定する</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AIの⑥</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>■影(できたら)</t>
+    <rPh sb="1" eb="2">
+      <t>カゲ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チュートリアル画面(できたら)</t>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>描画処理</t>
+    <rPh sb="0" eb="2">
+      <t>ビョウガ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>■敵</t>
     <rPh sb="1" eb="2">
       <t>テキ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>●ゲームステージイメージ図</t>
-    <rPh sb="12" eb="13">
-      <t>ズ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>●図の説明</t>
-    <rPh sb="1" eb="2">
-      <t>ズ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>セツメイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>壁</t>
-    <rPh sb="0" eb="1">
-      <t>カベ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>フラッグ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>プレイヤー</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>味方NPC</t>
+    <t>仕様</t>
     <rPh sb="0" eb="2">
-      <t>ミカタ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>敵NPC</t>
-    <rPh sb="0" eb="1">
-      <t>テキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>※下図のプレイヤーとNPCの配置されている場所がスタート位置</t>
-    <rPh sb="1" eb="3">
-      <t>シタズ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ハイチ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>バショ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>イチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・３か所にランダム配置</t>
-    <rPh sb="3" eb="4">
-      <t>ショ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ハイチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>イラスト</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>説明</t>
-    <rPh sb="0" eb="2">
-      <t>セツメイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>①相手が3人以上の場合はセンターラインの壁以上は移動しない</t>
-    <rPh sb="20" eb="21">
-      <t>カベ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>イジョウ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>イドウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>④NPCは一つの壁に2人以上隠れないようにする</t>
-    <rPh sb="5" eb="6">
-      <t>ヒト</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>カベ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>ニン</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>イジョウ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>カク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>⑤敵のいる壁には隠れないようにする</t>
-    <rPh sb="1" eb="2">
-      <t>テキ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>カベ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>カク</t>
+      <t>シヨウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -866,7 +1164,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -949,6 +1247,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2866,8 +3173,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD661192-7374-489F-99B2-1EFC8329D065}">
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -2969,8 +3276,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2A9522C-43BD-419B-8E15-5E7E664DE1A6}">
   <dimension ref="A1:Q37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -2979,132 +3286,300 @@
     <col min="2" max="16384" width="8.796875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="19.8" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:15" ht="19.8" x14ac:dyDescent="0.45">
       <c r="A2" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A3" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A4" s="5" t="s">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A5" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="O5" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E6" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A7" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="O7" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A8" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="O8" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A9" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="G10" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A12" s="5" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A5" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A6" s="5" t="s">
+      <c r="G12" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A13" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="30"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I15" s="28"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A16" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" s="30"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="I16" s="28"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A17" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="30"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="I17" s="28"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A18" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A7" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A8" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A10" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A11" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A12" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="J12" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="J13" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A14" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="J14" s="5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A15" s="5" t="s">
+      <c r="B18" s="30"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="28"/>
+      <c r="K18" s="28"/>
+      <c r="L18" s="28"/>
+      <c r="M18" s="28"/>
+      <c r="N18" s="28"/>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A19" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" s="30"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A16" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A17" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A18" s="5" t="s">
+      <c r="I19" s="28"/>
+      <c r="J19" s="28"/>
+      <c r="K19" s="28"/>
+      <c r="L19" s="28"/>
+      <c r="M19" s="28"/>
+      <c r="N19" s="28"/>
+    </row>
+    <row r="20" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A20" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="B20" s="29"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="28" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A19" s="5" t="s">
-        <v>52</v>
+      <c r="I20" s="28"/>
+      <c r="J20" s="28"/>
+      <c r="K20" s="28"/>
+      <c r="L20" s="28"/>
+      <c r="M20" s="28"/>
+      <c r="N20" s="28"/>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A21" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="B21" s="29"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="29"/>
+      <c r="J21" s="28"/>
+      <c r="K21" s="28"/>
+      <c r="L21" s="28"/>
+      <c r="M21" s="28"/>
+      <c r="N21" s="28"/>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A22" s="30" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="25" spans="1:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B25" s="5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="O25" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
@@ -3121,10 +3596,10 @@
       <c r="L26" s="15"/>
       <c r="M26" s="8"/>
       <c r="O26" s="26" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="P26" s="27" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.45">
@@ -3158,7 +3633,7 @@
       <c r="M28" s="11"/>
       <c r="O28" s="9"/>
       <c r="P28" s="22" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.45">
@@ -3192,7 +3667,7 @@
       <c r="M30" s="11"/>
       <c r="O30" s="23"/>
       <c r="P30" s="24" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.45">
@@ -3227,7 +3702,7 @@
       <c r="M32" s="11"/>
       <c r="O32" s="23"/>
       <c r="P32" s="25" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="33" spans="2:16" x14ac:dyDescent="0.45">
@@ -3261,7 +3736,7 @@
       <c r="M34" s="11"/>
       <c r="O34" s="23"/>
       <c r="P34" s="25" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="35" spans="2:16" x14ac:dyDescent="0.45">
@@ -3295,7 +3770,7 @@
       <c r="M36" s="11"/>
       <c r="O36" s="23"/>
       <c r="P36" s="25" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="37" spans="2:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
@@ -3320,4 +3795,25 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEAC589B-957A-444C-BEA9-23EEBE2E6A31}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/3DLv2_2023_vs2019_Game/Plan/仕様書.xlsx
+++ b/3DLv2_2023_vs2019_Game/Plan/仕様書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hiror\OneDrive\デスクトップ\game programming\授業\12Saitoh\3DLv2_2023_vs2019_Game\Plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2507A029-220B-4CB1-93AA-406F7B221B67}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD7E31B9-55D0-49F8-B37F-B55EEABA3F71}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5460" activeTab="2" xr2:uid="{43031F2A-CB87-48B4-88C3-2F16FE7E15E3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5460" activeTab="1" xr2:uid="{43031F2A-CB87-48B4-88C3-2F16FE7E15E3}"/>
   </bookViews>
   <sheets>
     <sheet name="企画書" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="109">
   <si>
     <t>仕様書</t>
     <rPh sb="0" eb="3">
@@ -261,20 +261,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>移動</t>
-    <rPh sb="0" eb="2">
-      <t>イドウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>攻撃</t>
-    <rPh sb="0" eb="2">
-      <t>コウゲキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>移動処理</t>
     <rPh sb="0" eb="2">
       <t>イドウ</t>
@@ -852,6 +838,220 @@
     <t>仕様</t>
     <rPh sb="0" eb="2">
       <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>■SE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲーム中BGM</t>
+    <rPh sb="3" eb="4">
+      <t>チュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>雪玉を投げるSE</t>
+    <rPh sb="0" eb="2">
+      <t>ユキダマ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ヒット時のSE</t>
+    <rPh sb="3" eb="4">
+      <t>ジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>移動時のSE(足音)</t>
+    <rPh sb="0" eb="2">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>アシオト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フラッグ取得時のSE</t>
+    <rPh sb="4" eb="6">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲームクリア時</t>
+    <rPh sb="6" eb="7">
+      <t>ジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲームオーバー時</t>
+    <rPh sb="7" eb="8">
+      <t>ジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイトル画面時</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>etc..</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>■素材探し</t>
+    <rPh sb="1" eb="3">
+      <t>ソザイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>サガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>壁</t>
+    <rPh sb="0" eb="1">
+      <t>カベ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フラッグ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>地面</t>
+    <rPh sb="0" eb="2">
+      <t>ジメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>雪玉</t>
+    <rPh sb="0" eb="2">
+      <t>ユキダマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>背景</t>
+    <rPh sb="0" eb="2">
+      <t>ハイケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UI</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>影</t>
+    <rPh sb="0" eb="1">
+      <t>カゲ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・制作終了後(夏休み)にアニメーションのカットインの導入も検討</t>
+    <rPh sb="1" eb="3">
+      <t>セイサク</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>シュウリョウゴ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ナツヤス</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ドウニュウ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ケントウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>■整理</t>
+    <rPh sb="1" eb="3">
+      <t>セイリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プロジェクトの整理</t>
+    <rPh sb="7" eb="9">
+      <t>セイリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>■カメラ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カメラ設定</t>
+    <rPh sb="3" eb="5">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>■雪玉</t>
+    <rPh sb="1" eb="3">
+      <t>ユキダマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>描画処理</t>
+    <rPh sb="0" eb="2">
+      <t>ビョウガ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>物理演算</t>
+    <rPh sb="0" eb="2">
+      <t>ブツリ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>エンザン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1690,16 +1890,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>2827020</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>411480</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
+      <xdr:rowOff>205740</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>411480</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1714,8 +1914,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3611880" y="4663440"/>
-          <a:ext cx="2011680" cy="1051560"/>
+          <a:off x="4693920" y="4777740"/>
+          <a:ext cx="2011680" cy="1280160"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeEllipseCallout">
           <a:avLst>
@@ -3171,10 +3371,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD661192-7374-489F-99B2-1EFC8329D065}">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -3265,6 +3465,11 @@
         <v>18</v>
       </c>
     </row>
+    <row r="21" spans="1:2" ht="36" x14ac:dyDescent="0.45">
+      <c r="B21" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3274,10 +3479,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2A9522C-43BD-419B-8E15-5E7E664DE1A6}">
-  <dimension ref="A1:Q37"/>
+  <dimension ref="A1:V37"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -3286,173 +3491,243 @@
     <col min="2" max="16384" width="8.796875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="19.8" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:22" ht="19.8" x14ac:dyDescent="0.45">
       <c r="A2" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A3" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q4" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="V4" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A5" s="28" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="K5" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="O5" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.45">
+        <v>107</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q5" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="V5" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A6" s="5" t="s">
         <v>22</v>
       </c>
       <c r="C6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q6" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="V6" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A7" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q7" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="V7" s="28" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A8" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I8" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q8" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="V8" s="28" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A9" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="M9" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q9" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="V9" s="28" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="I10" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="M10" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q10" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="V10" s="28" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="E11" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="M11" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q11" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="V11" s="28" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A12" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G6" s="5" t="s">
+      <c r="C12" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="E12" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="I12" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="K6" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A7" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G7" s="5" t="s">
+      <c r="Q12" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="V12" s="28" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A13" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E13" s="28"/>
+      <c r="I13" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="K7" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="O7" s="5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A8" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G8" s="28" t="s">
-        <v>79</v>
-      </c>
-      <c r="K8" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="O8" s="5" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A9" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="K9" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="G10" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="K10" s="5" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A11" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="K11" s="5" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A12" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A13" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="R13" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="V13" s="28"/>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="C14" s="28" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B15" s="30"/>
       <c r="C15" s="30"/>
@@ -3461,13 +3736,16 @@
       <c r="F15" s="30"/>
       <c r="G15" s="30"/>
       <c r="H15" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I15" s="28"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="O15" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A16" s="30" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B16" s="30"/>
       <c r="C16" s="30"/>
@@ -3476,13 +3754,16 @@
       <c r="F16" s="30"/>
       <c r="G16" s="30"/>
       <c r="H16" s="28" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I16" s="28"/>
+      <c r="O16" s="5" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A17" s="30" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B17" s="30"/>
       <c r="C17" s="30"/>
@@ -3491,13 +3772,16 @@
       <c r="F17" s="30"/>
       <c r="G17" s="30"/>
       <c r="H17" s="28" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I17" s="28"/>
+      <c r="O17" s="1" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A18" s="30" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B18" s="30"/>
       <c r="C18" s="30"/>
@@ -3512,10 +3796,13 @@
       <c r="L18" s="28"/>
       <c r="M18" s="28"/>
       <c r="N18" s="28"/>
+      <c r="O18" s="5" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A19" s="30" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B19" s="30"/>
       <c r="C19" s="30"/>
@@ -3524,7 +3811,7 @@
       <c r="F19" s="30"/>
       <c r="G19" s="30"/>
       <c r="H19" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I19" s="28"/>
       <c r="J19" s="28"/>
@@ -3532,10 +3819,13 @@
       <c r="L19" s="28"/>
       <c r="M19" s="28"/>
       <c r="N19" s="28"/>
+      <c r="O19" s="5" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="20" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="30" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B20" s="29"/>
       <c r="C20" s="29"/>
@@ -3544,7 +3834,7 @@
       <c r="F20" s="29"/>
       <c r="G20" s="29"/>
       <c r="H20" s="28" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I20" s="28"/>
       <c r="J20" s="28"/>
@@ -3555,7 +3845,7 @@
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A21" s="30" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B21" s="29"/>
       <c r="C21" s="29"/>
@@ -3571,15 +3861,15 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A22" s="30" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="25" spans="1:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B25" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="O25" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="26" spans="1:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
@@ -3596,10 +3886,10 @@
       <c r="L26" s="15"/>
       <c r="M26" s="8"/>
       <c r="O26" s="26" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="P26" s="27" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.45">
@@ -3633,7 +3923,7 @@
       <c r="M28" s="11"/>
       <c r="O28" s="9"/>
       <c r="P28" s="22" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.45">
@@ -3667,7 +3957,7 @@
       <c r="M30" s="11"/>
       <c r="O30" s="23"/>
       <c r="P30" s="24" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.45">
@@ -3702,7 +3992,7 @@
       <c r="M32" s="11"/>
       <c r="O32" s="23"/>
       <c r="P32" s="25" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="33" spans="2:16" x14ac:dyDescent="0.45">
@@ -3736,7 +4026,7 @@
       <c r="M34" s="11"/>
       <c r="O34" s="23"/>
       <c r="P34" s="25" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="35" spans="2:16" x14ac:dyDescent="0.45">
@@ -3770,7 +4060,7 @@
       <c r="M36" s="11"/>
       <c r="O36" s="23"/>
       <c r="P36" s="25" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="37" spans="2:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
@@ -3801,7 +4091,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEAC589B-957A-444C-BEA9-23EEBE2E6A31}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
@@ -3809,7 +4099,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/3DLv2_2023_vs2019_Game/Plan/仕様書.xlsx
+++ b/3DLv2_2023_vs2019_Game/Plan/仕様書.xlsx
@@ -8,9 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hiror\OneDrive\デスクトップ\game programming\授業\12Saitoh\3DLv2_2023_vs2019_Game\Plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD7E31B9-55D0-49F8-B37F-B55EEABA3F71}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C9603F5-1906-460C-B652-4146CFFE5927}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5460" activeTab="1" xr2:uid="{43031F2A-CB87-48B4-88C3-2F16FE7E15E3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8844" activeTab="2" xr2:uid="{DFD40029-0776-4519-898C-BDB16FCC056F}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8844" activeTab="1" xr2:uid="{03F07755-AF91-4885-957A-0B6B08823BA7}"/>
   </bookViews>
   <sheets>
     <sheet name="企画書" sheetId="2" r:id="rId1"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="164">
   <si>
     <t>仕様書</t>
     <rPh sb="0" eb="3">
@@ -835,13 +836,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>仕様</t>
-    <rPh sb="0" eb="2">
-      <t>シヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>■SE</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1052,6 +1046,834 @@
     </rPh>
     <rPh sb="2" eb="4">
       <t>エンザン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>詳細</t>
+    <rPh sb="0" eb="2">
+      <t>ショウサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Spaceキー　→　ジャンプ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マウス操作　→　視点移動</t>
+    <rPh sb="3" eb="5">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シテン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マウス左　　→　攻撃</t>
+    <rPh sb="3" eb="4">
+      <t>ヒダリ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>コウゲキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・移動速度は全員同じ</t>
+    <rPh sb="1" eb="3">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ソクド</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ゼンイン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>オナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;移動について&gt;</t>
+    <rPh sb="1" eb="3">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WASDキー　→　移動</t>
+    <rPh sb="9" eb="11">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;攻撃について&gt;</t>
+    <rPh sb="1" eb="3">
+      <t>コウゲキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・自分が使える雪玉の数は60個</t>
+    <rPh sb="1" eb="3">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ユキダマ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>カズ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・1入力につき球は一個しか出ない</t>
+    <rPh sb="2" eb="4">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>タマ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>イッコ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>デ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・長押しをしても球は一個しか出ない</t>
+    <rPh sb="1" eb="3">
+      <t>ナガオ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>タマ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>イッコ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>デ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・左Shift　+　移動キーでダッシュ</t>
+    <rPh sb="1" eb="2">
+      <t>ヒダリ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;ジャンプについて&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・ジャンプの高さは壁から少し頭が出るくらい</t>
+    <rPh sb="6" eb="7">
+      <t>タカ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>カベ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>スコ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>アタマ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>デ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・ジャンプ中でも攻撃はできる</t>
+    <rPh sb="5" eb="6">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>コウゲキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;死亡処理(ヒット時)について&gt;</t>
+    <rPh sb="1" eb="5">
+      <t>シボウショリ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・ヒットした時点でゲームオーバーになる</t>
+    <rPh sb="6" eb="8">
+      <t>ジテン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・ヒットした時はすぐにゲームオーバー画面に移行せずヒット時のUIを挟んでからゲームオーバー画面へ移行する</t>
+    <rPh sb="6" eb="7">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>イコウ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>ハサ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>イコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;移動について&gt;</t>
+    <rPh sb="1" eb="3">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・移動速度はプレイヤーと同じ</t>
+    <rPh sb="1" eb="3">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ソクド</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>オナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・壁~壁またはフラッグまでの移動の時はダッシュの速度になる</t>
+    <rPh sb="1" eb="2">
+      <t>カベ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>カベ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ソクド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・保有する雪玉の数は60個</t>
+    <rPh sb="1" eb="3">
+      <t>ホユウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ユキダマ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>カズ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・攻撃の間隔はAIで設定</t>
+    <rPh sb="1" eb="3">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カンカク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※球の処理については雪玉の詳細を参照</t>
+    <rPh sb="1" eb="2">
+      <t>タマ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ユキダマ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;死亡処理(ビット時)について&gt;</t>
+    <rPh sb="1" eb="3">
+      <t>シボウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>味方</t>
+    <rPh sb="0" eb="2">
+      <t>ミカタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・移動し速度はプレイヤーと同じ</t>
+    <rPh sb="1" eb="3">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ソクド</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>オナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;死亡処理(ヒット時)について&gt;</t>
+    <rPh sb="1" eb="3">
+      <t>シボウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・ヒット時ヒットのエフェクトを表示、その後モデルを削除</t>
+    <rPh sb="4" eb="5">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・ヒット時ヒットのエフェクトを表示、その後モデルを削除</t>
+    <rPh sb="4" eb="5">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;描画について&gt;</t>
+    <rPh sb="1" eb="3">
+      <t>ビョウガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・攻撃時雪玉を生成</t>
+    <rPh sb="1" eb="4">
+      <t>コウゲキジ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ユキダマ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>セイセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・地面または壁、プレイヤー、NPCに当たった時モデルを削除</t>
+    <rPh sb="1" eb="3">
+      <t>ジメン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>カベ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・モデルを削除するタイミングで雪が砕けるエフェクトを表示</t>
+    <rPh sb="5" eb="7">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ユキ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>クダ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;物理演算について&gt;</t>
+    <rPh sb="1" eb="3">
+      <t>ブツリ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>エンザン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・雪玉は画面の中心から斜方投射</t>
+    <rPh sb="1" eb="3">
+      <t>ユキダマ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>チュウシン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>シャホウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>トウシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・投射のイメージはマインクラフトの雪玉の軌道と同じようにする</t>
+    <rPh sb="1" eb="3">
+      <t>ユキダマ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>チュウシン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>シャホウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>トウシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイトル名、プレイヤーの3Dモデル、メニュー選択アイコン</t>
+    <rPh sb="22" eb="24">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>文字「チュートリアル」、文字「ゲームスタート」、文字「終了」</t>
+    <rPh sb="0" eb="2">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>シュウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;タイトル画面&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>必要な要素　</t>
+    </r>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>文字「ゲームクリア」、文字「タイトルへ戻る」</t>
+    <rPh sb="0" eb="2">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;ゲームクリア画面&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>必要な要素</t>
+    </r>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヨウソ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>文字「ゲームオーバー」、文字「もう一度遊ぶ」、文字「タイトルへ戻る」</t>
+    <rPh sb="0" eb="2">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>イチド</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>アソ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;ゲームオーバー画面&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>必要な要素</t>
+    </r>
+    <rPh sb="8" eb="10">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヨウソ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・残りの雪玉数　表示「 残りの雪玉数：ｎ個」</t>
+    <rPh sb="1" eb="2">
+      <t>ノコ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ユキダマ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ノコ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ユキダマ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・残りの敵の数　表示「残りの敵の数 ：ｎ体」</t>
+    <rPh sb="1" eb="2">
+      <t>ノコ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>カズ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ノコ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>カズ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>タイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・残り時間　　　表示「残り時間　00:00」</t>
+    <rPh sb="1" eb="2">
+      <t>ノコ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ノコ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;ゲーム中の画面&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>必要な要素</t>
+    </r>
+    <rPh sb="4" eb="5">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヨウソ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;エフェクト&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●ヒット時のエフェクト</t>
+    <rPh sb="4" eb="5">
+      <t>ジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・NPCは当たった時体の色を赤色にする。数秒後モデルを削除</t>
+    <rPh sb="5" eb="6">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>カラダ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>イロ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>アカイロ</t>
+    </rPh>
+    <rPh sb="20" eb="23">
+      <t>スウビョウゴ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・雪玉はモデルを削除するタイミングで雪玉が砕けるエフェクトを表示</t>
+    <rPh sb="1" eb="3">
+      <t>ユキダマ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ユキ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ダマ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>クダ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カメラ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カメラはプレイヤーの頭あたりに設定</t>
+    <rPh sb="10" eb="11">
+      <t>アタマ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※一人称視点</t>
+    <rPh sb="1" eb="6">
+      <t>イチニンショウシテン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3373,9 +4195,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD661192-7374-489F-99B2-1EFC8329D065}">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
@@ -3467,7 +4288,7 @@
     </row>
     <row r="21" spans="1:2" ht="36" x14ac:dyDescent="0.45">
       <c r="B21" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -3481,9 +4302,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2A9522C-43BD-419B-8E15-5E7E664DE1A6}">
   <dimension ref="A1:V37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
@@ -3517,7 +4339,7 @@
         <v>53</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>50</v>
@@ -3526,10 +4348,10 @@
         <v>64</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="V4" s="1" t="s">
-        <v>91</v>
+        <v>80</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.45">
@@ -3543,7 +4365,7 @@
         <v>78</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I5" s="5" t="s">
         <v>59</v>
@@ -3552,10 +4374,10 @@
         <v>65</v>
       </c>
       <c r="Q5" s="28" t="s">
-        <v>82</v>
-      </c>
-      <c r="V5" s="5" t="s">
-        <v>92</v>
+        <v>81</v>
+      </c>
+      <c r="T5" s="5" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.45">
@@ -3569,7 +4391,7 @@
         <v>22</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I6" s="5" t="s">
         <v>60</v>
@@ -3578,10 +4400,10 @@
         <v>66</v>
       </c>
       <c r="Q6" s="28" t="s">
-        <v>83</v>
-      </c>
-      <c r="V6" s="5" t="s">
-        <v>93</v>
+        <v>82</v>
+      </c>
+      <c r="T6" s="5" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.45">
@@ -3601,10 +4423,10 @@
         <v>67</v>
       </c>
       <c r="Q7" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="V7" s="28" t="s">
-        <v>97</v>
+        <v>83</v>
+      </c>
+      <c r="T7" s="28" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.45">
@@ -3624,10 +4446,10 @@
         <v>68</v>
       </c>
       <c r="Q8" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="V8" s="28" t="s">
-        <v>94</v>
+        <v>84</v>
+      </c>
+      <c r="T8" s="28" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.45">
@@ -3641,10 +4463,10 @@
         <v>69</v>
       </c>
       <c r="Q9" s="28" t="s">
-        <v>86</v>
-      </c>
-      <c r="V9" s="28" t="s">
-        <v>95</v>
+        <v>85</v>
+      </c>
+      <c r="T9" s="28" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.45">
@@ -3655,10 +4477,10 @@
         <v>70</v>
       </c>
       <c r="Q10" s="28" t="s">
-        <v>87</v>
-      </c>
-      <c r="V10" s="28" t="s">
-        <v>96</v>
+        <v>86</v>
+      </c>
+      <c r="T10" s="28" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.45">
@@ -3666,10 +4488,10 @@
         <v>28</v>
       </c>
       <c r="C11" s="28" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E11" s="28" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I11" s="5" t="s">
         <v>58</v>
@@ -3678,10 +4500,10 @@
         <v>72</v>
       </c>
       <c r="Q11" s="28" t="s">
-        <v>88</v>
-      </c>
-      <c r="V11" s="28" t="s">
-        <v>98</v>
+        <v>87</v>
+      </c>
+      <c r="T11" s="28" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.45">
@@ -3689,19 +4511,19 @@
         <v>24</v>
       </c>
       <c r="C12" s="28" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E12" s="28" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I12" s="5" t="s">
         <v>62</v>
       </c>
       <c r="Q12" s="28" t="s">
-        <v>89</v>
-      </c>
-      <c r="V12" s="28" t="s">
-        <v>99</v>
+        <v>88</v>
+      </c>
+      <c r="T12" s="28" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.45">
@@ -3716,13 +4538,13 @@
         <v>63</v>
       </c>
       <c r="R13" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="V13" s="28"/>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.45">
       <c r="C14" s="28" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.45">
@@ -4089,21 +4911,345 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEAC589B-957A-444C-BEA9-23EEBE2E6A31}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="B60" sqref="B60"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="10.296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="67" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
-        <v>80</v>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A1" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A3" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B7" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B8" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B9" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B10" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B12" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B13" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B14" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B15" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B16" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B17" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B18" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B19" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="36" x14ac:dyDescent="0.45">
+      <c r="B20" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A21" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B22" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B23" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B24" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B25" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B26" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B27" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B28" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B29" s="28" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A30" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B31" s="28" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B32" s="28" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B33" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B34" s="28" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B35" s="28" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B36" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B37" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B38" s="28" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A39" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B40" s="28" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B41" s="28" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B42" s="28" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B43" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B44" s="28" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B45" s="28" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A46" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B46" s="28" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B47" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B48" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B49" s="28" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B50" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B51" s="28" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B52" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B53" s="28" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B54" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B55" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B56" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B57" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B58" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B59" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B60" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A61" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B61" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B62" t="s">
+        <v>163</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/3DLv2_2023_vs2019_Game/Plan/仕様書.xlsx
+++ b/3DLv2_2023_vs2019_Game/Plan/仕様書.xlsx
@@ -8,9 +8,8 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hiror\OneDrive\デスクトップ\game programming\授業\12Saitoh\3DLv2_2023_vs2019_Game\Plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C9603F5-1906-460C-B652-4146CFFE5927}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51CB92ED-D6D0-4B36-B4DB-47031D7DC25E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8844" activeTab="2" xr2:uid="{DFD40029-0776-4519-898C-BDB16FCC056F}"/>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8844" activeTab="1" xr2:uid="{03F07755-AF91-4885-957A-0B6B08823BA7}"/>
   </bookViews>
   <sheets>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="165">
   <si>
     <t>仕様書</t>
     <rPh sb="0" eb="3">
@@ -1877,12 +1876,16 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>✔</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1949,6 +1952,12 @@
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Segoe UI Symbol"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2186,7 +2195,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2278,6 +2287,54 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3893,6 +3950,61 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>251460</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="184731" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="テキスト ボックス 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{244B972A-CF7A-4234-96BE-B2C359266B63}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13068300" y="1082040"/>
+          <a:ext cx="184731" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4196,7 +4308,6 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
@@ -4302,15 +4413,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2A9522C-43BD-419B-8E15-5E7E664DE1A6}">
   <dimension ref="A1:V37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="U6" sqref="U6"/>
     </sheetView>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="9.796875" style="5" customWidth="1"/>
-    <col min="2" max="16384" width="8.796875" style="5"/>
+    <col min="2" max="19" width="8.796875" style="5"/>
+    <col min="20" max="20" width="10.3984375" style="5" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="8.796875" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.45">
@@ -4428,6 +4540,9 @@
       <c r="T7" s="28" t="s">
         <v>96</v>
       </c>
+      <c r="U7" s="46" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A8" s="5" t="s">
@@ -4467,6 +4582,9 @@
       </c>
       <c r="T9" s="28" t="s">
         <v>94</v>
+      </c>
+      <c r="U9" s="46" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.45">
@@ -4911,12 +5029,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEAC589B-957A-444C-BEA9-23EEBE2E6A31}">
-  <dimension ref="A1:B62"/>
+  <dimension ref="A1:I44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="B60" sqref="B60"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D51" sqref="D51"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
@@ -4924,328 +5041,605 @@
     <col min="2" max="2" width="67" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A3" s="1" t="s">
+    <row r="2" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A3" s="31" t="s">
         <v>109</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="34" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B4" t="s">
+      <c r="C3" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="D3" s="33" t="s">
+        <v>127</v>
+      </c>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="34"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A4" s="35"/>
+      <c r="B4" s="37" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B5" t="s">
+      <c r="C4" s="35"/>
+      <c r="D4" s="36" t="s">
+        <v>128</v>
+      </c>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="37"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A5" s="35"/>
+      <c r="B5" s="37" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B6" t="s">
+      <c r="C5" s="35"/>
+      <c r="D5" s="36" t="s">
+        <v>129</v>
+      </c>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="37"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A6" s="35"/>
+      <c r="B6" s="37" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B7" s="1" t="s">
+      <c r="C6" s="35"/>
+      <c r="D6" s="38" t="s">
+        <v>116</v>
+      </c>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="37"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A7" s="35"/>
+      <c r="B7" s="43" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B8" t="s">
+      <c r="C7" s="35"/>
+      <c r="D7" s="36" t="s">
+        <v>130</v>
+      </c>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="37"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A8" s="35"/>
+      <c r="B8" s="37" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B9" t="s">
+      <c r="C8" s="35"/>
+      <c r="D8" s="36" t="s">
+        <v>131</v>
+      </c>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="37"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A9" s="35"/>
+      <c r="B9" s="37" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B10" s="1" t="s">
+      <c r="C9" s="35"/>
+      <c r="D9" s="38" t="s">
+        <v>132</v>
+      </c>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="37"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A10" s="35"/>
+      <c r="B10" s="43" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B11" t="s">
+      <c r="C10" s="35"/>
+      <c r="D10" s="38" t="s">
+        <v>133</v>
+      </c>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="36"/>
+      <c r="I10" s="37"/>
+    </row>
+    <row r="11" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A11" s="35"/>
+      <c r="B11" s="37" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B12" t="s">
+      <c r="C11" s="40"/>
+      <c r="D11" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="41"/>
+      <c r="I11" s="42"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A12" s="35"/>
+      <c r="B12" s="37" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B13" s="1" t="s">
+      <c r="C12" s="31" t="s">
+        <v>134</v>
+      </c>
+      <c r="D12" s="33" t="s">
+        <v>127</v>
+      </c>
+      <c r="E12" s="32"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="32"/>
+      <c r="I12" s="34"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A13" s="35"/>
+      <c r="B13" s="43" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B14" t="s">
+      <c r="C13" s="35"/>
+      <c r="D13" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="E13" s="36"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="36"/>
+      <c r="I13" s="37"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A14" s="35"/>
+      <c r="B14" s="37" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B15" t="s">
+      <c r="C14" s="35"/>
+      <c r="D14" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="36"/>
+      <c r="I14" s="37"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A15" s="35"/>
+      <c r="B15" s="37" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B16" t="s">
+      <c r="C15" s="35"/>
+      <c r="D15" s="38" t="s">
+        <v>116</v>
+      </c>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="36"/>
+      <c r="I15" s="37"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A16" s="35"/>
+      <c r="B16" s="37" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B17" s="1" t="s">
+      <c r="C16" s="35"/>
+      <c r="D16" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="36"/>
+      <c r="I16" s="37"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A17" s="35"/>
+      <c r="B17" s="43" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B18" s="1" t="s">
+      <c r="C17" s="35"/>
+      <c r="D17" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="E17" s="36"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="37"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A18" s="35"/>
+      <c r="B18" s="43" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B19" t="s">
+      <c r="C18" s="35"/>
+      <c r="D18" s="38" t="s">
+        <v>132</v>
+      </c>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="37"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A19" s="35"/>
+      <c r="B19" s="37" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" ht="36" x14ac:dyDescent="0.45">
-      <c r="B20" s="3" t="s">
+      <c r="C19" s="35"/>
+      <c r="D19" s="38" t="s">
+        <v>136</v>
+      </c>
+      <c r="E19" s="36"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="36"/>
+      <c r="I19" s="37"/>
+    </row>
+    <row r="20" spans="1:9" ht="36.6" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A20" s="40"/>
+      <c r="B20" s="44" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A21" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B22" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B23" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B24" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B25" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B26" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B27" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B28" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B29" s="28" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A30" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B31" s="28" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B32" s="28" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B33" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B34" s="28" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B35" s="28" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B36" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B37" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B38" s="28" t="s">
+      <c r="C20" s="40"/>
+      <c r="D20" s="13" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A39" s="1" t="s">
+      <c r="E20" s="41"/>
+      <c r="F20" s="41"/>
+      <c r="G20" s="41"/>
+      <c r="H20" s="41"/>
+      <c r="I20" s="42"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A21" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B21" s="45" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B40" s="28" t="s">
+      <c r="C21" s="36"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="36"/>
+      <c r="H21" s="36"/>
+      <c r="I21" s="36"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A22" s="35"/>
+      <c r="B22" s="11" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B41" s="28" t="s">
+      <c r="C22" s="36"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="36"/>
+      <c r="G22" s="36"/>
+      <c r="H22" s="36"/>
+      <c r="I22" s="36"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A23" s="35"/>
+      <c r="B23" s="11" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B42" s="28" t="s">
+      <c r="C23" s="36"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="36"/>
+      <c r="F23" s="36"/>
+      <c r="G23" s="36"/>
+      <c r="H23" s="36"/>
+      <c r="I23" s="36"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A24" s="35"/>
+      <c r="B24" s="11" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B43" s="1" t="s">
+      <c r="C24" s="36"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="36"/>
+      <c r="G24" s="36"/>
+      <c r="H24" s="36"/>
+      <c r="I24" s="36"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A25" s="35"/>
+      <c r="B25" s="43" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B44" s="28" t="s">
+      <c r="C25" s="36"/>
+      <c r="D25" s="36"/>
+      <c r="E25" s="36"/>
+      <c r="F25" s="36"/>
+      <c r="G25" s="36"/>
+      <c r="H25" s="36"/>
+      <c r="I25" s="36"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A26" s="35"/>
+      <c r="B26" s="11" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B45" s="28" t="s">
+      <c r="C26" s="36"/>
+      <c r="D26" s="36"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="36"/>
+      <c r="G26" s="36"/>
+      <c r="H26" s="36"/>
+      <c r="I26" s="36"/>
+    </row>
+    <row r="27" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A27" s="40"/>
+      <c r="B27" s="14" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A46" s="1" t="s">
+      <c r="C27" s="36"/>
+      <c r="D27" s="36"/>
+      <c r="E27" s="36"/>
+      <c r="F27" s="36"/>
+      <c r="G27" s="36"/>
+      <c r="H27" s="36"/>
+      <c r="I27" s="36"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A28" s="39" t="s">
         <v>98</v>
       </c>
-      <c r="B46" s="28" t="s">
+      <c r="B28" s="11" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B47" t="s">
+      <c r="C28" s="36"/>
+      <c r="D28" s="36"/>
+      <c r="E28" s="36"/>
+      <c r="F28" s="36"/>
+      <c r="G28" s="36"/>
+      <c r="H28" s="36"/>
+      <c r="I28" s="36"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A29" s="35"/>
+      <c r="B29" s="37" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B48" t="s">
+      <c r="C29" s="36"/>
+      <c r="D29" s="36"/>
+      <c r="E29" s="36"/>
+      <c r="F29" s="36"/>
+      <c r="G29" s="36"/>
+      <c r="H29" s="36"/>
+      <c r="I29" s="36"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A30" s="35"/>
+      <c r="B30" s="37" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B49" s="28" t="s">
+      <c r="C30" s="36"/>
+      <c r="D30" s="36"/>
+      <c r="E30" s="36"/>
+      <c r="F30" s="36"/>
+      <c r="G30" s="36"/>
+      <c r="H30" s="36"/>
+      <c r="I30" s="36"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A31" s="35"/>
+      <c r="B31" s="11" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B50" t="s">
+      <c r="C31" s="36"/>
+      <c r="D31" s="36"/>
+      <c r="E31" s="36"/>
+      <c r="F31" s="36"/>
+      <c r="G31" s="36"/>
+      <c r="H31" s="36"/>
+      <c r="I31" s="36"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A32" s="35"/>
+      <c r="B32" s="37" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B51" s="28" t="s">
+      <c r="C32" s="36"/>
+      <c r="D32" s="36"/>
+      <c r="E32" s="36"/>
+      <c r="F32" s="36"/>
+      <c r="G32" s="36"/>
+      <c r="H32" s="36"/>
+      <c r="I32" s="36"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A33" s="35"/>
+      <c r="B33" s="11" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B52" t="s">
+      <c r="C33" s="36"/>
+      <c r="D33" s="36"/>
+      <c r="E33" s="36"/>
+      <c r="F33" s="36"/>
+      <c r="G33" s="36"/>
+      <c r="H33" s="36"/>
+      <c r="I33" s="36"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A34" s="35"/>
+      <c r="B34" s="37" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B53" s="28" t="s">
+      <c r="C34" s="36"/>
+      <c r="D34" s="36"/>
+      <c r="E34" s="36"/>
+      <c r="F34" s="36"/>
+      <c r="G34" s="36"/>
+      <c r="H34" s="36"/>
+      <c r="I34" s="36"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A35" s="35"/>
+      <c r="B35" s="11" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B54" t="s">
+      <c r="C35" s="36"/>
+      <c r="D35" s="36"/>
+      <c r="E35" s="36"/>
+      <c r="F35" s="36"/>
+      <c r="G35" s="36"/>
+      <c r="H35" s="36"/>
+      <c r="I35" s="36"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A36" s="35"/>
+      <c r="B36" s="37" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B55" t="s">
+      <c r="C36" s="36"/>
+      <c r="D36" s="36"/>
+      <c r="E36" s="36"/>
+      <c r="F36" s="36"/>
+      <c r="G36" s="36"/>
+      <c r="H36" s="36"/>
+      <c r="I36" s="36"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A37" s="35"/>
+      <c r="B37" s="37" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B56" t="s">
+      <c r="C37" s="36"/>
+      <c r="D37" s="36"/>
+      <c r="E37" s="36"/>
+      <c r="F37" s="36"/>
+      <c r="G37" s="36"/>
+      <c r="H37" s="36"/>
+      <c r="I37" s="36"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A38" s="35"/>
+      <c r="B38" s="37" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B57" t="s">
+      <c r="C38" s="36"/>
+      <c r="D38" s="36"/>
+      <c r="E38" s="36"/>
+      <c r="F38" s="36"/>
+      <c r="G38" s="36"/>
+      <c r="H38" s="36"/>
+      <c r="I38" s="36"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A39" s="35"/>
+      <c r="B39" s="37" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B58" t="s">
+      <c r="C39" s="36"/>
+      <c r="D39" s="36"/>
+      <c r="E39" s="36"/>
+      <c r="F39" s="36"/>
+      <c r="G39" s="36"/>
+      <c r="H39" s="36"/>
+      <c r="I39" s="36"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A40" s="35"/>
+      <c r="B40" s="37" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B59" t="s">
+      <c r="C40" s="36"/>
+      <c r="D40" s="36"/>
+      <c r="E40" s="36"/>
+      <c r="F40" s="36"/>
+      <c r="G40" s="36"/>
+      <c r="H40" s="36"/>
+      <c r="I40" s="36"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A41" s="35"/>
+      <c r="B41" s="37" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B60" t="s">
+      <c r="C41" s="36"/>
+      <c r="D41" s="36"/>
+      <c r="E41" s="36"/>
+      <c r="F41" s="36"/>
+      <c r="G41" s="36"/>
+      <c r="H41" s="36"/>
+      <c r="I41" s="36"/>
+    </row>
+    <row r="42" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A42" s="35"/>
+      <c r="B42" s="37" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A61" s="1" t="s">
+      <c r="C42" s="36"/>
+      <c r="D42" s="36"/>
+      <c r="E42" s="36"/>
+      <c r="F42" s="36"/>
+      <c r="G42" s="36"/>
+      <c r="H42" s="36"/>
+      <c r="I42" s="36"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A43" s="31" t="s">
         <v>161</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B43" s="34" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B62" t="s">
+      <c r="C43" s="36"/>
+      <c r="D43" s="36"/>
+      <c r="E43" s="36"/>
+      <c r="F43" s="36"/>
+      <c r="G43" s="36"/>
+      <c r="H43" s="36"/>
+      <c r="I43" s="36"/>
+    </row>
+    <row r="44" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A44" s="40"/>
+      <c r="B44" s="42" t="s">
         <v>163</v>
       </c>
+      <c r="C44" s="36"/>
+      <c r="D44" s="36"/>
+      <c r="E44" s="36"/>
+      <c r="F44" s="36"/>
+      <c r="G44" s="36"/>
+      <c r="H44" s="36"/>
+      <c r="I44" s="36"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/3DLv2_2023_vs2019_Game/Plan/仕様書.xlsx
+++ b/3DLv2_2023_vs2019_Game/Plan/仕様書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hiror\OneDrive\デスクトップ\game programming\授業\12Saitoh\3DLv2_2023_vs2019_Game\Plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51CB92ED-D6D0-4B36-B4DB-47031D7DC25E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C48A2574-3065-4554-B66A-685167581CDB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8844" activeTab="1" xr2:uid="{03F07755-AF91-4885-957A-0B6B08823BA7}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8844" activeTab="1" xr2:uid="{03F07755-AF91-4885-957A-0B6B08823BA7}"/>
   </bookViews>
   <sheets>
     <sheet name="企画書" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="166">
   <si>
     <t>仕様書</t>
     <rPh sb="0" eb="3">
@@ -1874,6 +1874,10 @@
     <rPh sb="1" eb="6">
       <t>イチニンショウシテン</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>✔</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -4413,8 +4417,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2A9522C-43BD-419B-8E15-5E7E664DE1A6}">
   <dimension ref="A1:V37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="U6" sqref="U6"/>
+    <sheetView tabSelected="1" topLeftCell="H4" workbookViewId="0">
+      <selection activeCell="U11" sqref="U11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -4491,6 +4495,9 @@
       <c r="T5" s="5" t="s">
         <v>91</v>
       </c>
+      <c r="U5" s="46" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A6" s="5" t="s">
@@ -4517,6 +4524,9 @@
       <c r="T6" s="5" t="s">
         <v>92</v>
       </c>
+      <c r="U6" s="46" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A7" s="5" t="s">
@@ -4565,6 +4575,9 @@
       </c>
       <c r="T8" s="28" t="s">
         <v>93</v>
+      </c>
+      <c r="U8" s="46" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.45">

--- a/3DLv2_2023_vs2019_Game/Plan/仕様書.xlsx
+++ b/3DLv2_2023_vs2019_Game/Plan/仕様書.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20397"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20398"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hiror\OneDrive\デスクトップ\game programming\授業\12Saitoh\3DLv2_2023_vs2019_Game\Plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C48A2574-3065-4554-B66A-685167581CDB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9290374C-3183-4D00-8626-1D750C549C49}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8844" activeTab="1" xr2:uid="{03F07755-AF91-4885-957A-0B6B08823BA7}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8844" activeTab="3" xr2:uid="{03F07755-AF91-4885-957A-0B6B08823BA7}"/>
   </bookViews>
   <sheets>
     <sheet name="企画書" sheetId="2" r:id="rId1"/>
     <sheet name="仕様書" sheetId="1" r:id="rId2"/>
     <sheet name="仕様書2" sheetId="3" r:id="rId3"/>
+    <sheet name="企画書2" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="204">
   <si>
     <t>仕様書</t>
     <rPh sb="0" eb="3">
@@ -603,28 +604,6 @@
     </rPh>
     <rPh sb="4" eb="5">
       <t>オナ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>⑥プレイヤーの視界外で一定の距離以内にいるとフラッグを取りに行く</t>
-    <rPh sb="7" eb="9">
-      <t>シカイ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>ソト</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>イッテイ</t>
-    </rPh>
-    <rPh sb="14" eb="18">
-      <t>キョリイナイ</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>ト</t>
-    </rPh>
-    <rPh sb="30" eb="31">
-      <t>イ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1884,12 +1863,655 @@
     <t>✔</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>⑥プレイヤーの視界外で一フラッグから一定の距離以内にいるとフラッグを取りに行く</t>
+    <rPh sb="7" eb="9">
+      <t>シカイ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ソト</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>イッ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>サダム</t>
+    </rPh>
+    <rPh sb="21" eb="25">
+      <t>キョリイナイ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※もしAI作りが難しそうな場合は企画書2に移行する</t>
+    <rPh sb="5" eb="6">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ムズカ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="16" eb="19">
+      <t>キカクショ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>イコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>企画書2</t>
+    <rPh sb="0" eb="3">
+      <t>キカクショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>雪合戦のAI作りが難しそうだった場合こちらの企画書で新たにプロジェクトを進める</t>
+    <rPh sb="0" eb="3">
+      <t>ユキガッセン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ムズカ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="22" eb="25">
+      <t>キカクショ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>アラ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>スス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AI制作までに進めていたプロジェクトの続きとしてこちらの制作に変更する</t>
+    <rPh sb="2" eb="4">
+      <t>セイサク</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>スス</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ツヅ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>セイサク</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大まかなゲームの内容</t>
+    <rPh sb="0" eb="1">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・ゲームオーバー条件は敵の弾に当たりHPが０になった瞬間に負けになる</t>
+    <rPh sb="8" eb="10">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>タマ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>シュンカン</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>マ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・敵AIの内容の変更</t>
+    <rPh sb="1" eb="2">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・マップ制作</t>
+    <rPh sb="4" eb="6">
+      <t>セイサク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・UI</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>雪合戦からからの主な変更点</t>
+    <rPh sb="0" eb="3">
+      <t>ユキガッセン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>オモ</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>ヘンコウテン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵AIについて</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・味方AIの削除</t>
+    <rPh sb="1" eb="3">
+      <t>ミカタ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・基本はエリア内を徘徊している。(経路探索が必要？)</t>
+    <rPh sb="1" eb="3">
+      <t>キホン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ハイカイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ケイロ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>タンサク</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・雪合戦のゲームから雪玉シューティングゲームにする</t>
+    <rPh sb="1" eb="4">
+      <t>ユキガッセン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ユキダマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・クリア条件は敵を全員倒せば勝ち</t>
+    <rPh sb="4" eb="6">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ゼンイン</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>タオ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>カチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・一定の距離までプレイヤーに近づくと近づくのをやめ攻撃を始める</t>
+    <rPh sb="1" eb="3">
+      <t>イッテイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>キョリ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>チカ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>チカ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ハジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・攻撃中の敵は静止しているか動くようにする</t>
+    <rPh sb="1" eb="3">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>セイシ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ウゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・雪玉を投げる動作には0～２までのランダム値を取得し、取得した値によって雪玉の数や投げた後の雪玉の軌道を変える(雪玉の軌道は余裕があればで良し！）</t>
+    <rPh sb="1" eb="3">
+      <t>ユキダマ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ドウサ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ユキダマ</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>カズ</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>アト</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>ユキダマ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>キドウ</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>ユキダマ</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>キドウ</t>
+    </rPh>
+    <rPh sb="62" eb="64">
+      <t>ヨユウ</t>
+    </rPh>
+    <rPh sb="69" eb="70">
+      <t>ヨ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・バトルロワイアルのように一定時間が経過するとエリアを狭くしていく</t>
+    <rPh sb="13" eb="15">
+      <t>イッテイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ケイカ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>セマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・エリア外に出るとダメージを喰らうようにする(難しそうな場合はエリアの処理はなくてもよし)</t>
+    <rPh sb="4" eb="5">
+      <t>ガイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>デ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ムズカ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>もしかしたら雪合戦より面白いかも。。</t>
+    <rPh sb="6" eb="9">
+      <t>ユキガッセン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>オモシロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>etc…</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・徘徊中に一定の範囲かつ自身の視界にプレイヤーがいたらプレイヤーのもとへ追尾する(経路探索が必要?)</t>
+    <rPh sb="1" eb="4">
+      <t>ハイカイチュウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>イッテイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ハンイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ジシン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>シカイ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ツイビ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ケイロ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>タンサク</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SnowBall Battle(略してSBB)</t>
+    <rPh sb="16" eb="17">
+      <t>リャク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3Dシューティングゲーム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UIについて</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・UIは自身のHP、残弾数、残りの敵の数を表示</t>
+    <rPh sb="4" eb="6">
+      <t>ジシン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ザンダン</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>カズ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ノコ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>カズ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・余裕がありそうもしくは夏休み中にミニマップのようなものを作りエリアがどこに向かって狭くなるかをわかるようにできたら最高</t>
+    <rPh sb="1" eb="3">
+      <t>ヨユウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ナツヤス</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>ム</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>セマ</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>サイコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・エリアの収縮が始まったら、エリア内に向かって移動する</t>
+    <rPh sb="5" eb="7">
+      <t>シュウシュク</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ハジ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ム</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>・HPは初めは数字で表示し余裕がありそうもしくは夏休み中に</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>❤</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>の画像に切り替えて表示してみる(ゼルダのプレワイやティアキンみたいなイメージ)</t>
+    </r>
+    <rPh sb="4" eb="5">
+      <t>ハジ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>スウジ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヨユウ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ナツヤス</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>❤</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>　　　</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>❤</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>内容</t>
+    <rPh sb="0" eb="2">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エリア範囲</t>
+    <rPh sb="3" eb="5">
+      <t>ハンイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>回復アイテム</t>
+    <rPh sb="0" eb="2">
+      <t>カイフク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※エリアの範囲は最初はもう少し大きい</t>
+    <rPh sb="5" eb="7">
+      <t>ハンイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>サイショ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>スコ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>オオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>↓マップの最大範囲</t>
+    <rPh sb="5" eb="7">
+      <t>サイダイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ハンイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>仮マップイメージ(縮小版)</t>
+    <rPh sb="0" eb="1">
+      <t>カリ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>シュクショウ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>バン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1963,6 +2585,26 @@
       <name val="Segoe UI Symbol"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Segoe UI Symbol"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Segoe UI Symbol"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1972,7 +2614,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -2193,13 +2835,74 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2340,6 +3043,42 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4012,6 +4751,1343 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="正方形/長方形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AAC1A0AC-6429-41E0-98F0-E22DC6F0B31F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10828020" y="967740"/>
+          <a:ext cx="205740" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>373380</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="正方形/長方形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B6714E2-1C8A-457C-8F17-29F34BC0FB72}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5886248">
+          <a:off x="7818120" y="899160"/>
+          <a:ext cx="205740" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>99058</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>30481</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>441958</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>7621</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="正方形/長方形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B160A21-3DBC-4351-ACBC-D2B04CB611D9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="18604412">
+          <a:off x="9555478" y="1569721"/>
+          <a:ext cx="205740" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>480060</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>15239</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>220979</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="正方形/長方形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01A8B5DE-9528-4106-9943-DD753378A804}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="18678780">
+          <a:off x="7924800" y="2011679"/>
+          <a:ext cx="205740" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>601978</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>175259</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>419099</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="正方形/長方形 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2AA6EE95-019D-40FB-96EB-91742A58B565}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9319258" y="2697479"/>
+          <a:ext cx="487681" cy="205741"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>662939</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>335279</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="正方形/長方形 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F19D342C-4382-4B6C-AFE7-195B6FFAED59}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="15465275">
+          <a:off x="11460479" y="1196340"/>
+          <a:ext cx="205740" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>670559</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>22862</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>205739</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>137162</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="正方形/長方形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28957431-D76A-439E-AFFE-94493E075E98}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="9387839" y="487682"/>
+          <a:ext cx="205740" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>472440</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="正方形/長方形 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7AD67A7D-02A0-490E-B7F5-246F4BF1CA3F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="1586521">
+          <a:off x="10995660" y="3002280"/>
+          <a:ext cx="205740" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>541020</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="正方形/長方形 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{743B11F8-5D5B-4D89-852A-B447B31B3BFE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="19297358">
+          <a:off x="7917180" y="3246120"/>
+          <a:ext cx="205740" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>281940</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="正方形/長方形 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2FA4A5B-4BD7-44C9-9749-7D3676AE1984}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9464040" y="2903220"/>
+          <a:ext cx="205740" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>167639</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>312420</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>53339</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="正方形/長方形 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D7E548B-F56E-49B9-BB50-DA611FCA8763}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="2121181">
+          <a:off x="10835640" y="2004059"/>
+          <a:ext cx="205740" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>167640</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>510540</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="正方形/長方形 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6530DF41-F7FA-45FB-92C5-7CB028102304}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="12976860" y="1333500"/>
+          <a:ext cx="205740" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>220981</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>464821</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>91441</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="図 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2DEBA274-FB0B-4427-B45F-C92AEC79DC67}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7597141" y="2598421"/>
+          <a:ext cx="243840" cy="243840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>205740</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>449580</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="図 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6BF7B8E2-9327-4AF4-995B-158B2200B26A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12946380" y="1615440"/>
+          <a:ext cx="243840" cy="243840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>22861</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>213361</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>274320</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="図 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C10A6DD-96DB-46A8-BF92-13923AA71954}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8069581" y="678181"/>
+          <a:ext cx="251459" cy="251459"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>76199</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="図 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB70AC24-0BFE-4E6D-9F73-44D8B83A6FDF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9212580" y="2118360"/>
+          <a:ext cx="251459" cy="251459"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>213360</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>464819</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>45719</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="図 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD25A86A-4405-4E7A-87A2-2A70D16FE5F5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10271760" y="723900"/>
+          <a:ext cx="251459" cy="251459"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>228599</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>129539</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="図 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{314A8A56-9524-4DFA-91BC-61834DF69567}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8694420" y="3314700"/>
+          <a:ext cx="251459" cy="251459"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>129540</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>380999</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="図 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{299EF700-4AA8-4B2B-BF13-1234BA341169}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11529060" y="3223260"/>
+          <a:ext cx="251459" cy="251459"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>327660</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>579119</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>175259</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="図 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2717EF3-D1AD-4BA6-8400-747646C93C0D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10386060" y="2674620"/>
+          <a:ext cx="251459" cy="251459"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>662940</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>205740</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>243839</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>228599</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="図 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAF635C1-0C20-4809-A7EA-185C1DA7B1EA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11391900" y="1584960"/>
+          <a:ext cx="251459" cy="251459"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>205740</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>457199</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="図 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A1A2A6E-764B-4FB9-8AF5-FBE4FA439EF7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12946380" y="1851660"/>
+          <a:ext cx="251459" cy="251459"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>655320</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="楕円 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD84728E-FF5E-41BE-AE83-20143F81DDD0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7376160" y="464820"/>
+          <a:ext cx="4678680" cy="3916680"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="accent2"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>541020</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>182880</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="楕円 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9EECCBA-B5BE-44D7-B389-5727A35743F7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12893040" y="2118360"/>
+          <a:ext cx="388620" cy="358140"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="accent2"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
@@ -4311,7 +6387,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD661192-7374-489F-99B2-1EFC8329D065}">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A4" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
@@ -4403,7 +6479,7 @@
     </row>
     <row r="21" spans="1:2" ht="36" x14ac:dyDescent="0.45">
       <c r="B21" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -4417,8 +6493,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2A9522C-43BD-419B-8E15-5E7E664DE1A6}">
   <dimension ref="A1:V37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H4" workbookViewId="0">
-      <selection activeCell="U11" sqref="U11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -4449,54 +6525,54 @@
         <v>20</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>53</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>50</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="T4" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A5" s="28" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="Q5" s="28" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="T5" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="U5" s="46" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.45">
@@ -4510,22 +6586,22 @@
         <v>22</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Q6" s="28" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="T6" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U6" s="46" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.45">
@@ -4539,19 +6615,19 @@
         <v>23</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M7" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Q7" s="28" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="T7" s="28" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="U7" s="46" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.45">
@@ -4565,19 +6641,19 @@
         <v>26</v>
       </c>
       <c r="I8" s="28" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Q8" s="28" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="T8" s="28" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="U8" s="46" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.45">
@@ -4588,16 +6664,16 @@
         <v>51</v>
       </c>
       <c r="M9" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="Q9" s="28" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="T9" s="28" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="U9" s="46" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.45">
@@ -4605,13 +6681,13 @@
         <v>52</v>
       </c>
       <c r="M10" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q10" s="28" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="T10" s="28" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.45">
@@ -4619,22 +6695,22 @@
         <v>28</v>
       </c>
       <c r="C11" s="28" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E11" s="28" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M11" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Q11" s="28" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T11" s="28" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.45">
@@ -4642,19 +6718,19 @@
         <v>24</v>
       </c>
       <c r="C12" s="28" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E12" s="28" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Q12" s="28" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="T12" s="28" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.45">
@@ -4662,20 +6738,20 @@
         <v>32</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E13" s="28"/>
       <c r="I13" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="R13" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="V13" s="28"/>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.45">
       <c r="C14" s="28" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.45">
@@ -4693,7 +6769,7 @@
       </c>
       <c r="I15" s="28"/>
       <c r="O15" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.45">
@@ -4711,7 +6787,7 @@
       </c>
       <c r="I16" s="28"/>
       <c r="O16" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.45">
@@ -4725,7 +6801,7 @@
       <c r="F17" s="30"/>
       <c r="G17" s="30"/>
       <c r="H17" s="28" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I17" s="28"/>
       <c r="O17" s="1" t="s">
@@ -4773,7 +6849,7 @@
       <c r="M19" s="28"/>
       <c r="N19" s="28"/>
       <c r="O19" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="20" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.45">
@@ -4798,7 +6874,7 @@
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A21" s="30" t="s">
-        <v>56</v>
+        <v>165</v>
       </c>
       <c r="B21" s="29"/>
       <c r="C21" s="29"/>
@@ -4814,7 +6890,12 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A22" s="30" t="s">
-        <v>74</v>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A23" s="30" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="25" spans="1:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
@@ -5044,7 +7125,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEAC589B-957A-444C-BEA9-23EEBE2E6A31}">
   <dimension ref="A1:I44"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
@@ -5056,22 +7137,22 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="3" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A3" s="31" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B3" s="34" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C3" s="31" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D3" s="33" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E3" s="32"/>
       <c r="F3" s="32"/>
@@ -5082,11 +7163,11 @@
     <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A4" s="35"/>
       <c r="B4" s="37" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C4" s="35"/>
       <c r="D4" s="36" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E4" s="36"/>
       <c r="F4" s="36"/>
@@ -5097,11 +7178,11 @@
     <row r="5" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A5" s="35"/>
       <c r="B5" s="37" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C5" s="35"/>
       <c r="D5" s="36" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E5" s="36"/>
       <c r="F5" s="36"/>
@@ -5112,11 +7193,11 @@
     <row r="6" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A6" s="35"/>
       <c r="B6" s="37" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C6" s="35"/>
       <c r="D6" s="38" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E6" s="36"/>
       <c r="F6" s="36"/>
@@ -5127,11 +7208,11 @@
     <row r="7" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A7" s="35"/>
       <c r="B7" s="43" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C7" s="35"/>
       <c r="D7" s="36" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E7" s="36"/>
       <c r="F7" s="36"/>
@@ -5142,11 +7223,11 @@
     <row r="8" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A8" s="35"/>
       <c r="B8" s="37" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C8" s="35"/>
       <c r="D8" s="36" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E8" s="36"/>
       <c r="F8" s="36"/>
@@ -5157,11 +7238,11 @@
     <row r="9" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A9" s="35"/>
       <c r="B9" s="37" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C9" s="35"/>
       <c r="D9" s="38" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E9" s="36"/>
       <c r="F9" s="36"/>
@@ -5172,11 +7253,11 @@
     <row r="10" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A10" s="35"/>
       <c r="B10" s="43" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C10" s="35"/>
       <c r="D10" s="38" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E10" s="36"/>
       <c r="F10" s="36"/>
@@ -5187,11 +7268,11 @@
     <row r="11" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A11" s="35"/>
       <c r="B11" s="37" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C11" s="40"/>
       <c r="D11" s="13" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E11" s="41"/>
       <c r="F11" s="41"/>
@@ -5202,13 +7283,13 @@
     <row r="12" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A12" s="35"/>
       <c r="B12" s="37" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C12" s="31" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D12" s="33" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E12" s="32"/>
       <c r="F12" s="32"/>
@@ -5219,11 +7300,11 @@
     <row r="13" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A13" s="35"/>
       <c r="B13" s="43" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C13" s="35"/>
       <c r="D13" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E13" s="36"/>
       <c r="F13" s="36"/>
@@ -5234,11 +7315,11 @@
     <row r="14" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A14" s="35"/>
       <c r="B14" s="37" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C14" s="35"/>
       <c r="D14" s="10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E14" s="36"/>
       <c r="F14" s="36"/>
@@ -5249,11 +7330,11 @@
     <row r="15" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A15" s="35"/>
       <c r="B15" s="37" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C15" s="35"/>
       <c r="D15" s="38" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E15" s="36"/>
       <c r="F15" s="36"/>
@@ -5264,11 +7345,11 @@
     <row r="16" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A16" s="35"/>
       <c r="B16" s="37" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C16" s="35"/>
       <c r="D16" s="10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E16" s="36"/>
       <c r="F16" s="36"/>
@@ -5279,11 +7360,11 @@
     <row r="17" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A17" s="35"/>
       <c r="B17" s="43" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C17" s="35"/>
       <c r="D17" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E17" s="36"/>
       <c r="F17" s="36"/>
@@ -5294,11 +7375,11 @@
     <row r="18" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A18" s="35"/>
       <c r="B18" s="43" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C18" s="35"/>
       <c r="D18" s="38" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E18" s="36"/>
       <c r="F18" s="36"/>
@@ -5309,11 +7390,11 @@
     <row r="19" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A19" s="35"/>
       <c r="B19" s="37" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C19" s="35"/>
       <c r="D19" s="38" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E19" s="36"/>
       <c r="F19" s="36"/>
@@ -5324,11 +7405,11 @@
     <row r="20" spans="1:9" ht="36.6" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A20" s="40"/>
       <c r="B20" s="44" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C20" s="40"/>
       <c r="D20" s="13" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E20" s="41"/>
       <c r="F20" s="41"/>
@@ -5338,10 +7419,10 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A21" s="31" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B21" s="45" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C21" s="36"/>
       <c r="D21" s="36"/>
@@ -5354,7 +7435,7 @@
     <row r="22" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A22" s="35"/>
       <c r="B22" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C22" s="36"/>
       <c r="D22" s="36"/>
@@ -5367,7 +7448,7 @@
     <row r="23" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A23" s="35"/>
       <c r="B23" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C23" s="36"/>
       <c r="D23" s="36"/>
@@ -5380,7 +7461,7 @@
     <row r="24" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A24" s="35"/>
       <c r="B24" s="11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C24" s="36"/>
       <c r="D24" s="36"/>
@@ -5393,7 +7474,7 @@
     <row r="25" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A25" s="35"/>
       <c r="B25" s="43" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C25" s="36"/>
       <c r="D25" s="36"/>
@@ -5406,7 +7487,7 @@
     <row r="26" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A26" s="35"/>
       <c r="B26" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C26" s="36"/>
       <c r="D26" s="36"/>
@@ -5419,7 +7500,7 @@
     <row r="27" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A27" s="40"/>
       <c r="B27" s="14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C27" s="36"/>
       <c r="D27" s="36"/>
@@ -5431,10 +7512,10 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A28" s="39" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C28" s="36"/>
       <c r="D28" s="36"/>
@@ -5447,7 +7528,7 @@
     <row r="29" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A29" s="35"/>
       <c r="B29" s="37" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C29" s="36"/>
       <c r="D29" s="36"/>
@@ -5460,7 +7541,7 @@
     <row r="30" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A30" s="35"/>
       <c r="B30" s="37" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C30" s="36"/>
       <c r="D30" s="36"/>
@@ -5473,7 +7554,7 @@
     <row r="31" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A31" s="35"/>
       <c r="B31" s="11" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C31" s="36"/>
       <c r="D31" s="36"/>
@@ -5486,7 +7567,7 @@
     <row r="32" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A32" s="35"/>
       <c r="B32" s="37" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C32" s="36"/>
       <c r="D32" s="36"/>
@@ -5499,7 +7580,7 @@
     <row r="33" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A33" s="35"/>
       <c r="B33" s="11" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C33" s="36"/>
       <c r="D33" s="36"/>
@@ -5512,7 +7593,7 @@
     <row r="34" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A34" s="35"/>
       <c r="B34" s="37" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C34" s="36"/>
       <c r="D34" s="36"/>
@@ -5525,7 +7606,7 @@
     <row r="35" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A35" s="35"/>
       <c r="B35" s="11" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C35" s="36"/>
       <c r="D35" s="36"/>
@@ -5538,7 +7619,7 @@
     <row r="36" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A36" s="35"/>
       <c r="B36" s="37" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C36" s="36"/>
       <c r="D36" s="36"/>
@@ -5551,7 +7632,7 @@
     <row r="37" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A37" s="35"/>
       <c r="B37" s="37" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C37" s="36"/>
       <c r="D37" s="36"/>
@@ -5564,7 +7645,7 @@
     <row r="38" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A38" s="35"/>
       <c r="B38" s="37" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C38" s="36"/>
       <c r="D38" s="36"/>
@@ -5577,7 +7658,7 @@
     <row r="39" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A39" s="35"/>
       <c r="B39" s="37" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C39" s="36"/>
       <c r="D39" s="36"/>
@@ -5590,7 +7671,7 @@
     <row r="40" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A40" s="35"/>
       <c r="B40" s="37" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C40" s="36"/>
       <c r="D40" s="36"/>
@@ -5603,7 +7684,7 @@
     <row r="41" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A41" s="35"/>
       <c r="B41" s="37" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C41" s="36"/>
       <c r="D41" s="36"/>
@@ -5616,7 +7697,7 @@
     <row r="42" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A42" s="35"/>
       <c r="B42" s="37" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C42" s="36"/>
       <c r="D42" s="36"/>
@@ -5628,10 +7709,10 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A43" s="31" t="s">
+        <v>160</v>
+      </c>
+      <c r="B43" s="34" t="s">
         <v>161</v>
-      </c>
-      <c r="B43" s="34" t="s">
-        <v>162</v>
       </c>
       <c r="C43" s="36"/>
       <c r="D43" s="36"/>
@@ -5644,7 +7725,7 @@
     <row r="44" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A44" s="40"/>
       <c r="B44" s="42" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C44" s="36"/>
       <c r="D44" s="36"/>
@@ -5659,4 +7740,329 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A4D665E-1094-4BC9-9F75-146E71729A2B}">
+  <dimension ref="A1:U30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="21" max="21" width="12.19921875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="L2" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B3" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="R3" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="B4" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="L4" s="47"/>
+      <c r="M4" s="32"/>
+      <c r="N4" s="32"/>
+      <c r="O4" s="32"/>
+      <c r="P4" s="32"/>
+      <c r="Q4" s="32"/>
+      <c r="R4" s="34"/>
+    </row>
+    <row r="5" spans="1:21" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B5" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="L5" s="35"/>
+      <c r="M5" s="36"/>
+      <c r="N5" s="36"/>
+      <c r="O5" s="36"/>
+      <c r="P5" s="36"/>
+      <c r="Q5" s="36"/>
+      <c r="R5" s="37"/>
+      <c r="T5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="28" t="s">
+        <v>189</v>
+      </c>
+      <c r="L6" s="35"/>
+      <c r="M6" s="36"/>
+      <c r="N6" s="36"/>
+      <c r="O6" s="36"/>
+      <c r="P6" s="36"/>
+      <c r="Q6" s="36"/>
+      <c r="R6" s="37"/>
+      <c r="T6" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="U6" s="50" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="L7" s="35"/>
+      <c r="M7" s="36"/>
+      <c r="N7" s="36"/>
+      <c r="O7" s="36"/>
+      <c r="P7" s="36"/>
+      <c r="Q7" s="36"/>
+      <c r="R7" s="37"/>
+      <c r="T7" s="57"/>
+      <c r="U7" s="58" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="28" t="s">
+        <v>190</v>
+      </c>
+      <c r="L8" s="35"/>
+      <c r="M8" s="36"/>
+      <c r="N8" s="36"/>
+      <c r="O8" s="36"/>
+      <c r="P8" s="36"/>
+      <c r="Q8" s="36"/>
+      <c r="R8" s="37"/>
+      <c r="T8" s="55"/>
+      <c r="U8" s="51" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="L9" s="35"/>
+      <c r="M9" s="48" t="s">
+        <v>197</v>
+      </c>
+      <c r="N9" s="36"/>
+      <c r="O9" s="36"/>
+      <c r="P9" s="36"/>
+      <c r="Q9" s="36"/>
+      <c r="R9" s="37"/>
+      <c r="T9" s="55"/>
+      <c r="U9" s="51" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A10" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="L10" s="35"/>
+      <c r="M10" s="36"/>
+      <c r="N10" s="36"/>
+      <c r="O10" s="36"/>
+      <c r="P10" s="36"/>
+      <c r="Q10" s="36"/>
+      <c r="R10" s="37"/>
+      <c r="T10" s="55"/>
+      <c r="U10" s="52" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="B11" t="s">
+        <v>179</v>
+      </c>
+      <c r="L11" s="35"/>
+      <c r="M11" s="36"/>
+      <c r="N11" s="36"/>
+      <c r="O11" s="36"/>
+      <c r="P11" s="36"/>
+      <c r="Q11" s="36"/>
+      <c r="R11" s="37"/>
+      <c r="T11" s="55"/>
+      <c r="U11" s="52"/>
+    </row>
+    <row r="12" spans="1:21" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B12" t="s">
+        <v>180</v>
+      </c>
+      <c r="L12" s="35"/>
+      <c r="M12" s="36"/>
+      <c r="N12" s="36"/>
+      <c r="O12" s="36"/>
+      <c r="P12" s="36"/>
+      <c r="Q12" s="36"/>
+      <c r="R12" s="37"/>
+      <c r="T12" s="56" t="s">
+        <v>196</v>
+      </c>
+      <c r="U12" s="53" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="B13" t="s">
+        <v>171</v>
+      </c>
+      <c r="L13" s="35"/>
+      <c r="M13" s="36"/>
+      <c r="N13" s="36"/>
+      <c r="O13" s="36"/>
+      <c r="P13" s="36"/>
+      <c r="Q13" s="36"/>
+      <c r="R13" s="49" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="B14" t="s">
+        <v>184</v>
+      </c>
+      <c r="L14" s="35"/>
+      <c r="M14" s="36"/>
+      <c r="N14" s="36"/>
+      <c r="O14" s="36"/>
+      <c r="P14" s="36"/>
+      <c r="Q14" s="36"/>
+      <c r="R14" s="37"/>
+      <c r="T14" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="B15" t="s">
+        <v>185</v>
+      </c>
+      <c r="L15" s="35"/>
+      <c r="M15" s="36"/>
+      <c r="N15" s="36"/>
+      <c r="O15" s="36"/>
+      <c r="P15" s="36"/>
+      <c r="Q15" s="36"/>
+      <c r="R15" s="37"/>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="L16" s="35"/>
+      <c r="M16" s="36"/>
+      <c r="N16" s="36"/>
+      <c r="O16" s="36"/>
+      <c r="P16" s="36"/>
+      <c r="Q16" s="36"/>
+      <c r="R16" s="37"/>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="L17" s="35"/>
+      <c r="M17" s="36"/>
+      <c r="N17" s="36"/>
+      <c r="O17" s="36"/>
+      <c r="P17" s="36"/>
+      <c r="Q17" s="36"/>
+      <c r="R17" s="37"/>
+    </row>
+    <row r="18" spans="1:18" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="L18" s="40"/>
+      <c r="M18" s="41"/>
+      <c r="N18" s="41"/>
+      <c r="O18" s="41"/>
+      <c r="P18" s="41"/>
+      <c r="Q18" s="41"/>
+      <c r="R18" s="42"/>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A19" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="B20" t="s">
+        <v>172</v>
+      </c>
+      <c r="F20" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="B21" t="s">
+        <v>177</v>
+      </c>
+      <c r="F21" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="B22" t="s">
+        <v>173</v>
+      </c>
+      <c r="F22" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="B23" t="s">
+        <v>174</v>
+      </c>
+      <c r="F23" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="C24" t="s">
+        <v>187</v>
+      </c>
+      <c r="F24" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="F25" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="F27" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="F28" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="F29" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="F30" t="s">
+        <v>195</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="U10:U11"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>